--- a/spliced/walkingToRunning/2023-03-27_19-47-09/gyroscope_selected.xlsx
+++ b/spliced/walkingToRunning/2023-03-27_19-47-09/gyroscope_selected.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:C31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -452,222 +452,332 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.03603153119142521</v>
+        <v>1.033005767512607</v>
       </c>
       <c r="B2" t="n">
-        <v>0.04222946605462907</v>
+        <v>-2.26011000282463</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.1640078815920647</v>
+        <v>-0.9051166365201431</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0.9966398652257602</v>
+        <v>0.9114278760449622</v>
       </c>
       <c r="B3" t="n">
-        <v>0.3199145141346715</v>
+        <v>-1.322062040197435</v>
       </c>
       <c r="C3" t="n">
-        <v>-1.120942865980084</v>
+        <v>-0.8478403153090641</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0.5151678604641169</v>
+        <v>0.6373885839149871</v>
       </c>
       <c r="B4" t="n">
-        <v>-1.390967567761743</v>
+        <v>-0.4370783201750674</v>
       </c>
       <c r="C4" t="n">
-        <v>-1.090604268271347</v>
+        <v>-0.9901816481831425</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>1.033005767512607</v>
+        <v>-0.08095168998871549</v>
       </c>
       <c r="B5" t="n">
-        <v>-2.26011000282463</v>
+        <v>-0.8572516530409613</v>
       </c>
       <c r="C5" t="n">
-        <v>-0.9051166365201431</v>
+        <v>-0.2425374309907035</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0.9114278760449622</v>
+        <v>-0.5983732620189923</v>
       </c>
       <c r="B6" t="n">
-        <v>-1.322062040197435</v>
+        <v>-0.3525244653353435</v>
       </c>
       <c r="C6" t="n">
-        <v>-0.8478403153090641</v>
+        <v>-0.1835469028045379</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>0.6373885839149871</v>
+        <v>0.904387354850761</v>
       </c>
       <c r="B7" t="n">
-        <v>-0.4370783201750674</v>
+        <v>0.4711575967570125</v>
       </c>
       <c r="C7" t="n">
-        <v>-0.9901816481831425</v>
+        <v>-3.501346578200644</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>-0.08095168998871549</v>
+        <v>-0.0358646748394702</v>
       </c>
       <c r="B8" t="n">
-        <v>-0.8572516530409613</v>
+        <v>-1.06903420953914</v>
       </c>
       <c r="C8" t="n">
-        <v>-0.2425374309907035</v>
+        <v>-1.137895204212497</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>-0.5983732620189923</v>
+        <v>-2.645820761549075</v>
       </c>
       <c r="B9" t="n">
-        <v>-0.3525244653353435</v>
+        <v>-2.995684344193039</v>
       </c>
       <c r="C9" t="n">
-        <v>-0.1835469028045379</v>
+        <v>2.325931413420326</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0.904387354850761</v>
+        <v>-5.634616028303401</v>
       </c>
       <c r="B10" t="n">
-        <v>0.4711575967570125</v>
+        <v>1.589792383128232</v>
       </c>
       <c r="C10" t="n">
-        <v>-3.501346578200644</v>
+        <v>0.8637641414828536</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>-0.0358646748394702</v>
+        <v>0.2434335577077258</v>
       </c>
       <c r="B11" t="n">
-        <v>-1.06903420953914</v>
+        <v>-0.9524030027718666</v>
       </c>
       <c r="C11" t="n">
-        <v>-1.137895204212497</v>
+        <v>-0.7793511700356166</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>-2.645820761549075</v>
+        <v>3.219139538962262</v>
       </c>
       <c r="B12" t="n">
-        <v>-2.995684344193039</v>
+        <v>-4.921159070113614</v>
       </c>
       <c r="C12" t="n">
-        <v>2.325931413420326</v>
+        <v>-0.2975026624726805</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>-5.634616028303401</v>
+        <v>6.111283532504389</v>
       </c>
       <c r="B13" t="n">
-        <v>1.589792383128232</v>
+        <v>1.10011664204216</v>
       </c>
       <c r="C13" t="n">
-        <v>0.8637641414828536</v>
+        <v>1.229119239182312</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>0.2434335577077258</v>
+        <v>2.061637947614152</v>
       </c>
       <c r="B14" t="n">
-        <v>-0.9524030027718666</v>
+        <v>3.835073033968605</v>
       </c>
       <c r="C14" t="n">
-        <v>-0.7793511700356166</v>
+        <v>-0.2914631209154284</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>3.219139538962262</v>
+        <v>-3.819613575935366</v>
       </c>
       <c r="B15" t="n">
-        <v>-4.921159070113614</v>
+        <v>2.543305224385755</v>
       </c>
       <c r="C15" t="n">
-        <v>-0.2975026624726805</v>
+        <v>1.029467895113191</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>6.111283532504389</v>
+        <v>-4.798000733057658</v>
       </c>
       <c r="B16" t="n">
-        <v>1.10011664204216</v>
+        <v>7.385336404559252</v>
       </c>
       <c r="C16" t="n">
-        <v>1.229119239182312</v>
+        <v>1.159243436466003</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>2.061637947614152</v>
+        <v>-0.8656106913226824</v>
       </c>
       <c r="B17" t="n">
-        <v>3.835073033968605</v>
+        <v>6.255807002385461</v>
       </c>
       <c r="C17" t="n">
-        <v>-0.2914631209154284</v>
+        <v>-3.608730400088184</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>-3.819613575935366</v>
+        <v>4.937833545536877</v>
       </c>
       <c r="B18" t="n">
-        <v>2.543305224385755</v>
+        <v>-2.039471638613807</v>
       </c>
       <c r="C18" t="n">
-        <v>1.029467895113191</v>
+        <v>-6.196790481435843</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>-4.798000733057658</v>
+        <v>5.261263814465728</v>
       </c>
       <c r="B19" t="n">
-        <v>7.385336404559252</v>
+        <v>-3.646456844505198</v>
       </c>
       <c r="C19" t="n">
-        <v>1.159243436466003</v>
+        <v>-4.444081427037008</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>-0.8656106913226824</v>
+        <v>-0.0522782514835689</v>
       </c>
       <c r="B20" t="n">
-        <v>6.255807002385461</v>
+        <v>0.8027088176245329</v>
       </c>
       <c r="C20" t="n">
-        <v>-3.608730400088184</v>
+        <v>-0.5144340389076021</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>4.937833545536877</v>
+        <v>-7.4421002289345</v>
       </c>
       <c r="B21" t="n">
-        <v>-2.039471638613807</v>
+        <v>-0.8067863480798509</v>
       </c>
       <c r="C21" t="n">
-        <v>-6.196790481435843</v>
+        <v>5.891316611191369</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>-0.6881247882184418</v>
+      </c>
+      <c r="B22" t="n">
+        <v>-10.85945387133243</v>
+      </c>
+      <c r="C22" t="n">
+        <v>4.675690663957009</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>4.403560649389491</v>
+      </c>
+      <c r="B23" t="n">
+        <v>-11.45763061786516</v>
+      </c>
+      <c r="C23" t="n">
+        <v>1.461910155997879</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>4.784720346845424</v>
+      </c>
+      <c r="B24" t="n">
+        <v>3.472261708358207</v>
+      </c>
+      <c r="C24" t="n">
+        <v>-1.690446103441295</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>0.8494467159797106</v>
+      </c>
+      <c r="B25" t="n">
+        <v>5.416543818924583</v>
+      </c>
+      <c r="C25" t="n">
+        <v>0.3924825684777868</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>-4.816584700825577</v>
+      </c>
+      <c r="B26" t="n">
+        <v>1.840564275695681</v>
+      </c>
+      <c r="C26" t="n">
+        <v>3.20516648785821</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>-4.067581341184413</v>
+      </c>
+      <c r="B27" t="n">
+        <v>7.491072893142713</v>
+      </c>
+      <c r="C27" t="n">
+        <v>-0.0797111165934683</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>-0.603338341945886</v>
+      </c>
+      <c r="B28" t="n">
+        <v>10.07777972605036</v>
+      </c>
+      <c r="C28" t="n">
+        <v>-4.32223105156559</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>3.495839129919295</v>
+      </c>
+      <c r="B29" t="n">
+        <v>0.1920398131184147</v>
+      </c>
+      <c r="C29" t="n">
+        <v>-4.956773451004905</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>4.441888874974746</v>
+      </c>
+      <c r="B30" t="n">
+        <v>-4.70699503503997</v>
+      </c>
+      <c r="C30" t="n">
+        <v>-3.40560439948378</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>1.070874737597066</v>
+      </c>
+      <c r="B31" t="n">
+        <v>-0.5835215826144202</v>
+      </c>
+      <c r="C31" t="n">
+        <v>-1.073033490400209</v>
       </c>
     </row>
   </sheetData>
